--- a/Linh kiện.xlsx
+++ b/Linh kiện.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\ICTU Team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\ICTU Team\Team_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F620B5-ADF3-4F61-8E7C-F59E6514FABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA9D6AB-537D-4C0B-A9F3-08461F10562D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7470" yWindow="5340" windowWidth="15360" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Linh kiện</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>linh kieện ngày 20/02</t>
+  </si>
+  <si>
+    <t>Mạch nạp stlink 7/03</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>Pi 4 compute + IO board</t>
   </si>
 </sst>
 </file>
@@ -409,7 +418,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +475,7 @@
         <v>1360000</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D12" si="0">(B3*C3)</f>
+        <f t="shared" ref="D3:D14" si="0">(B3*C3)</f>
         <v>1360000</v>
       </c>
       <c r="E3" t="s">
@@ -621,12 +630,34 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>120000</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2372000</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>2372000</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
@@ -636,35 +667,41 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <f>SUM(D2:D14)</f>
+        <v>6903000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>

--- a/Linh kiện.xlsx
+++ b/Linh kiện.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\ICTU Team\Team_Log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA9D6AB-537D-4C0B-A9F3-08461F10562D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA6BE7C-6835-45AC-96DA-232A3654014D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7470" yWindow="5340" windowWidth="15360" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SmartHome" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Linh kiện</t>
   </si>
@@ -88,13 +89,46 @@
   </si>
   <si>
     <t>Pi 4 compute + IO board</t>
+  </si>
+  <si>
+    <t>Aptomat</t>
+  </si>
+  <si>
+    <t>i.MX8 CPU+dev board</t>
+  </si>
+  <si>
+    <t>Thiết bị smart home(Công tắc zigbee)</t>
+  </si>
+  <si>
+    <t>SMART HOME</t>
+  </si>
+  <si>
+    <t>Tên thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị smart home(Cảm biến)</t>
+  </si>
+  <si>
+    <t>SmartHome</t>
+  </si>
+  <si>
+    <t>Pega</t>
+  </si>
+  <si>
+    <t>Sport1</t>
+  </si>
+  <si>
+    <t>linh kiện ngày 03/04</t>
+  </si>
+  <si>
+    <t>CH430G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +136,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,12 +154,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,22 +191,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -415,298 +519,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="4" width="26.5703125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="26.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
         <v>230000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <f>(B2*C2)</f>
         <v>230000</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
         <v>1360000</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D14" si="0">(B3*C3)</f>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D18" si="0">(B3*C3)</f>
         <v>1360000</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>65000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
         <v>1050000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
         <v>450000</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>30000</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
         <v>190000</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>190000</v>
       </c>
+      <c r="E8" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
         <v>150000</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
         <v>115000</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
         <v>276000</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>276000</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
         <v>400000</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
         <v>120000</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
         <v>2372000</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>2372000</v>
       </c>
+      <c r="E14" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>55000</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>6536500</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>6536500</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3121980</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>3121980</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1980000</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>1980000</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>230000</v>
+      </c>
       <c r="D19" s="2">
-        <f>SUM(D2:D14)</f>
-        <v>6903000</v>
-      </c>
-      <c r="E19" t="s">
+        <f>C19*B19</f>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="18">
+        <v>70</v>
+      </c>
+      <c r="C20" s="19">
+        <v>9000</v>
+      </c>
+      <c r="D20" s="20">
+        <f>C20*B20</f>
+        <v>630000</v>
+      </c>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <f>SUM(D2:D18)</f>
+        <v>18596480</v>
+      </c>
+      <c r="E23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="14"/>
+      <c r="E30" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="15"/>
+      <c r="E31" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="16"/>
+      <c r="E32" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDEEABD-D76F-4413-8498-87F3892E1301}">
+  <dimension ref="H1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="8:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3121980</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K7" si="0">(I4*J4)</f>
+        <v>3121980</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1980000</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>1980000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>190000</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>190000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1050000</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>1050000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>